--- a/module/admin-api/InitFiles/zh-tw/intent_template.xlsx
+++ b/module/admin-api/InitFiles/zh-tw/intent_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielwu/go-workspace/src/emotibot.com/emotigo/module/admin-api/InitFiles/zh-tw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changmin/go_home/src/emotibot.com/emotigo/module/admin-api/InitFiles/zh-tw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CDFF82-BDEF-394A-B5BB-9538DE72B594}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="說明" sheetId="2" r:id="rId1"/>
@@ -19,269 +18,20 @@
     <sheet name="請在此頁填寫你的意圖名稱和positive語句" sheetId="5" r:id="rId4"/>
     <sheet name="請在此頁填寫你的意圖名稱和negative語句" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>1.excel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>導入文件：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>請在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>excel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>導入文件的「詞庫模板」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>頁，填寫所有詞庫內容，請勿修改第一行名稱，否則無法讀取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>概念說明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve"> - positive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>語句：即該意圖的正例語料，可以理解為該語料與對應意圖意圖表達同一語義</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve"> - negative</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>語句：即該意圖的反例語料，可以理解為該意圖的否定意圖或不相關意圖的語義表達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>文檔限制：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>意圖長度限制：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>1~35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>語料長度限制：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t>1~50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Songti TC Regular"/>
-      </rPr>
-      <t>字</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>意圖名稱</t>
   </si>
@@ -326,37 +76,37 @@
     <t>預付的錢退酒店能不能退</t>
   </si>
   <si>
-    <t>意图名称</t>
-  </si>
-  <si>
-    <t>语句</t>
+    <t>1.excel導入文件：
+- 請在"請在此頁填寫你的意圖名稱和positive語句"及"請在此頁填寫你的意圖名稱和negative語句"sheet頁，
+   填寫語料內容，請勿修改第一行名稱，否則無法讀取
+2.概念說明：
+ - positive語句：即該意圖的正例語料，可以理解為該語料與對應意圖意圖表達同一語義
+ - negative語句：即該意圖的反例語料，可以理解為該意圖的否定意圖或不相關意圖的語義表達
+3.文檔限制：
+ - 意圖長度限制：1~35字
+ - 語料長度限制：1~50字</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Songti TC Regular"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="4">
@@ -469,15 +219,12 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -486,12 +233,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1675,88 +1425,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="113" style="1" customWidth="1"/>
     <col min="2" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="115.25" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row r="1" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
@@ -1768,103 +1518,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35" style="5" customWidth="1"/>
-    <col min="3" max="256" width="8.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35" style="4" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
@@ -1876,115 +1626,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" style="11" customWidth="1"/>
-    <col min="3" max="256" width="8.83203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" style="10" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
@@ -1996,91 +1746,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="50" style="12" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="12" customWidth="1"/>
-    <col min="3" max="256" width="8.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="50" style="11" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="11" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,91 +1844,93 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="50" style="14" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="14" customWidth="1"/>
-    <col min="3" max="256" width="8.83203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="50" style="13" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="13" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="16" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
